--- a/pred_ohlcv/54_21/2020-01-24 ICX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 ICX ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>37720.19517084143</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>37720.19517084143</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>37906.59517084143</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>37906.59517084143</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>37906.59517084143</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>38475.67397084143</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>38192.67397084143</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>38019.25867084143</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -782,7 +782,7 @@
         <v>33169.91317084143</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>33534.48527084143</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>33534.48527084143</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>33534.48527084143</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>32515.48527084143</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>32515.48527084143</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>31610.10477084143</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>26307.81637084142</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>35807.81637084143</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>10633.64037084143</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>13814.49357084143</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>12924.82237084143</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>10365.76917084143</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-40194.62802915858</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-38643.11312915858</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-38424.22562915858</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-40874.73132915857</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-41464.73132915857</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-41464.73132915857</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-41464.73132915857</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-41443.89362915858</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-41512.65402915858</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-41483.94252915858</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-36135.05262915858</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-43255.70702915858</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-41530.70702915858</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-40984.70702915858</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-65113.33222915856</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-54986.38512915857</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-54861.38512915857</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-43170.97242915857</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-43045.97242915857</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-43181.46302915856</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-43056.46302915856</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-40686.46302915856</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-45525.57522915857</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-45984.63822915857</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-46083.99982915857</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-45945.62412915857</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-44836.62412915857</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 ICX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 ICX ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>37720.19517084143</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>37906.59517084143</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>37906.59517084143</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>38192.67397084143</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>38019.25867084143</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>39290.51647084143</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>35406.77797084143</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>33169.91317084143</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>33534.48527084143</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>33534.48527084143</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>33534.48527084143</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>32515.48527084143</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>32515.48527084143</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>31610.10477084143</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>26307.81637084142</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>36632.01637084143</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>35807.81637084143</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>8953.864170841429</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>10633.64037084143</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>9743.969170841428</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>12924.82237084143</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>6883.480870841427</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>6799.562170841426</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-38643.11312915858</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-38424.22562915858</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-38424.22562915858</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-38424.22562915858</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-41464.73132915857</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-41464.73132915857</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-41464.73132915857</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-41443.89362915858</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-41512.65402915858</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-41483.94252915858</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-36135.05262915858</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-35398.48352915858</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-34940.40932915857</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-35046.96952915857</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-35046.96952915857</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-42937.57452915858</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-42937.57452915858</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-42994.82222915858</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-43255.70702915858</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-43255.70702915858</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-41530.70702915858</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-40984.70702915858</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-40984.70702915858</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-66952.26472915857</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-67211.54522915857</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-65113.33222915856</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-58706.82152915857</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-58994.47092915857</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-54861.38512915857</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-43170.97242915857</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-43045.97242915857</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-43181.46302915856</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-43056.46302915856</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-40686.46302915856</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-45525.57522915857</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-45984.63822915857</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-46083.99982915857</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-44836.62412915857</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-45140.62412915857</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-44741.62412915857</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-43003.06382915856</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-45980.02862915857</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-45721.79722915857</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-47377.71342915857</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-44744.71342915857</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-45594.32532915857</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-43711.43312915857</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
